--- a/primerdata_deep.xlsx
+++ b/primerdata_deep.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="111">
   <si>
     <t>No.</t>
   </si>
@@ -20,25 +20,10 @@
     <t>DIS.FAV</t>
   </si>
   <si>
-    <t>DIS.SPE</t>
-  </si>
-  <si>
-    <t>GON.LOB</t>
-  </si>
-  <si>
-    <t>LIT.UND</t>
-  </si>
-  <si>
-    <t>PAC.SPE</t>
-  </si>
-  <si>
-    <t>PEC.PAE</t>
-  </si>
-  <si>
-    <t>POD.CRU</t>
-  </si>
-  <si>
-    <t>POR.SP.</t>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>site</t>
   </si>
   <si>
     <t>TUR.MES</t>
@@ -47,21 +32,21 @@
     <t>CYP.CHA</t>
   </si>
   <si>
+    <t>MER.AMP</t>
+  </si>
+  <si>
     <t>CYP.MIC</t>
   </si>
   <si>
-    <t>MER.AMP</t>
+    <t>GON.COL</t>
+  </si>
+  <si>
+    <t>PLA.PIN</t>
   </si>
   <si>
     <t>DIS.LIZ</t>
   </si>
   <si>
-    <t>FUN.SP.</t>
-  </si>
-  <si>
-    <t>GON.COL</t>
-  </si>
-  <si>
     <t>MYC.ELE</t>
   </si>
   <si>
@@ -74,6 +59,51 @@
     <t>TUR.PEL</t>
   </si>
   <si>
+    <t>GOS.PEC</t>
+  </si>
+  <si>
+    <t>COE.ASP</t>
+  </si>
+  <si>
+    <t>CTE.SP.</t>
+  </si>
+  <si>
+    <t>CYP.SER</t>
+  </si>
+  <si>
+    <t>ECH.LAM</t>
+  </si>
+  <si>
+    <t>ECL.ASP</t>
+  </si>
+  <si>
+    <t>FAV.SP.</t>
+  </si>
+  <si>
+    <t>LOB.RAD</t>
+  </si>
+  <si>
+    <t>LOB.REC</t>
+  </si>
+  <si>
+    <t>MER.SCA</t>
+  </si>
+  <si>
+    <t>PAV.DEC</t>
+  </si>
+  <si>
+    <t>PLA.SIN</t>
+  </si>
+  <si>
+    <t>POR.CYL</t>
+  </si>
+  <si>
+    <t>POR.RUS</t>
+  </si>
+  <si>
+    <t>TUR.FRO</t>
+  </si>
+  <si>
     <t>ACR.SP.</t>
   </si>
   <si>
@@ -83,9 +113,6 @@
     <t>GON.SP.</t>
   </si>
   <si>
-    <t>GOS.PEC</t>
-  </si>
-  <si>
     <t>LER.PRU</t>
   </si>
   <si>
@@ -98,9 +125,6 @@
     <t>ACA.ECH</t>
   </si>
   <si>
-    <t>ECL.ASP</t>
-  </si>
-  <si>
     <t>FVS.ABD</t>
   </si>
   <si>
@@ -134,15 +158,15 @@
     <t>PEC.LAC</t>
   </si>
   <si>
-    <t>PLA.PIN</t>
-  </si>
-  <si>
     <t>PLS.VER</t>
   </si>
   <si>
     <t>POC.ACU</t>
   </si>
   <si>
+    <t>TUB.MIC</t>
+  </si>
+  <si>
     <t>TUB.SP.</t>
   </si>
   <si>
@@ -173,12 +197,6 @@
     <t>transect</t>
   </si>
   <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>depth</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -191,172 +209,139 @@
     <t>11</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Deep</t>
+  </si>
+  <si>
+    <t>Lazarus North 2</t>
+  </si>
+  <si>
+    <t>Lazarus North 3</t>
+  </si>
+  <si>
+    <t>Lazarus North 1</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>36</t>
+    <t>23</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>544</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>117</t>
-  </si>
-  <si>
-    <t>Lazarus North 1</t>
-  </si>
-  <si>
-    <t>Lazarus North 3</t>
-  </si>
-  <si>
-    <t>Deep</t>
   </si>
   <si>
     <t>Seawalls</t>
@@ -579,175 +564,211 @@
       <c r="BD1" t="s">
         <v>55</v>
       </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" t="s">
-        <v>98</v>
-      </c>
-      <c r="U2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA2" t="n">
+      <c r="BI2" t="n">
         <v>1.0</v>
       </c>
-      <c r="BB2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>115</v>
+      <c r="BJ2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -755,169 +776,187 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="W3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Z3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AA3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AB3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AC3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AD3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AE3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AF3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AI3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AJ3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AL3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AM3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AN3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AO3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AP3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AQ3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AR3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AS3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AT3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AU3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AW3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AX3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AY3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AZ3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA3" t="n">
+        <v>62</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI3" t="n">
         <v>1.0</v>
       </c>
-      <c r="BB3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>115</v>
+      <c r="BJ3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -925,169 +964,187 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="W4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="X4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Y4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Z4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AA4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AB4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AC4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AD4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AE4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AF4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AI4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AJ4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AL4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AM4" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="AN4" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AO4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AP4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AQ4" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="AR4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AS4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AT4" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="AU4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AV4" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="AW4" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="AX4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AY4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AZ4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>2.0</v>
+        <v>63</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>85</v>
       </c>
       <c r="BB4" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="BC4" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="BD4" t="s">
-        <v>115</v>
+        <v>62</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -1095,169 +1152,187 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q5" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="R5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="V5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="W5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="X5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Y5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Z5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AA5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AB5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AC5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AD5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AE5" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AF5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AG5" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="AH5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AI5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AJ5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="AL5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AM5" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="AN5" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="AO5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE5" t="s">
         <v>109</v>
       </c>
-      <c r="AP5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR5" t="s">
+      <c r="BF5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BJ5" t="s">
         <v>110</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>112</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="6">
@@ -1265,169 +1340,187 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q6" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="R6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T6" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="W6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="X6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Y6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Z6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AA6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AB6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AC6" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AD6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AE6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AF6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AG6" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="AH6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AI6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AJ6" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AL6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AM6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AN6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AO6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AP6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AQ6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AR6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AS6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AT6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AU6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AV6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AW6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AX6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AY6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AZ6" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>3.0</v>
+        <v>62</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>62</v>
       </c>
       <c r="BB6" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="BC6" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="BD6" t="s">
-        <v>115</v>
+        <v>62</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7">
@@ -1435,169 +1528,187 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="M7" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="R7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="V7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="W7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="X7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Y7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Z7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AA7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AB7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AC7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AD7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AE7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AF7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AG7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AI7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AJ7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AK7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AL7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AM7" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="AN7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AO7" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AP7" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="AQ7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AR7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AS7" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="AT7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AU7" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="AV7" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="AW7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="AX7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AY7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AZ7" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>3.0</v>
+        <v>100</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>62</v>
       </c>
       <c r="BB7" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="BC7" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="BD7" t="s">
-        <v>115</v>
+        <v>62</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -1605,169 +1716,187 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O8" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="R8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="W8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="X8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Y8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Z8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AA8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AB8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AC8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AD8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AE8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AF8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AG8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AI8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AJ8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AK8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AL8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AM8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AN8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AO8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AP8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AQ8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AR8" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="AS8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AT8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AU8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AV8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AW8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AX8" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="AY8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AZ8" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>4.0</v>
+        <v>62</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>62</v>
       </c>
       <c r="BB8" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="BC8" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="BD8" t="s">
-        <v>115</v>
+        <v>62</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -1775,169 +1904,187 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="R9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="S9" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="T9" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="W9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="X9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Y9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Z9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AA9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AB9" t="s">
         <v>62</v>
       </c>
       <c r="AC9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AD9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AE9" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="AF9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AG9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AI9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AJ9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AK9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AL9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AM9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AN9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AO9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AP9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AQ9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="AR9" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="AS9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AT9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AU9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AV9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AW9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AX9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AY9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AZ9" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>4.0</v>
+        <v>62</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>62</v>
       </c>
       <c r="BB9" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="BC9" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="BD9" t="s">
-        <v>115</v>
+        <v>108</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -1945,169 +2092,187 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
         <v>65</v>
       </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" t="s">
-        <v>91</v>
-      </c>
-      <c r="N10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" t="s">
-        <v>56</v>
-      </c>
       <c r="P10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="R10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="W10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="X10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Y10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Z10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AA10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AB10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AC10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AD10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AE10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AF10" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="AG10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AH10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AI10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AJ10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AL10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AM10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AN10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AO10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AP10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AQ10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AR10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AS10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AT10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AU10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AV10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AW10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AX10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AY10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AZ10" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>5.0</v>
+        <v>62</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>62</v>
       </c>
       <c r="BB10" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="BC10" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="BD10" t="s">
-        <v>115</v>
+        <v>62</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -2115,169 +2280,1127 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W11" t="s">
+        <v>62</v>
+      </c>
+      <c r="X11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>62</v>
+      </c>
+      <c r="R12" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" t="s">
+        <v>62</v>
+      </c>
+      <c r="U12" t="s">
+        <v>62</v>
+      </c>
+      <c r="V12" t="s">
+        <v>62</v>
+      </c>
+      <c r="W12" t="s">
+        <v>62</v>
+      </c>
+      <c r="X12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" t="s">
+        <v>62</v>
+      </c>
+      <c r="T13" t="s">
+        <v>62</v>
+      </c>
+      <c r="U13" t="s">
+        <v>62</v>
+      </c>
+      <c r="V13" t="s">
+        <v>62</v>
+      </c>
+      <c r="W13" t="s">
+        <v>62</v>
+      </c>
+      <c r="X13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH13" t="s">
         <v>63</v>
       </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" t="s">
-        <v>56</v>
-      </c>
-      <c r="O11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R11" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" t="s">
-        <v>56</v>
-      </c>
-      <c r="T11" t="s">
-        <v>92</v>
-      </c>
-      <c r="U11" t="s">
-        <v>56</v>
-      </c>
-      <c r="V11" t="s">
-        <v>56</v>
-      </c>
-      <c r="W11" t="s">
-        <v>56</v>
-      </c>
-      <c r="X11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA11" t="n">
+      <c r="AI13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" t="s">
+        <v>62</v>
+      </c>
+      <c r="S14" t="s">
+        <v>62</v>
+      </c>
+      <c r="T14" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" t="s">
+        <v>62</v>
+      </c>
+      <c r="W14" t="s">
+        <v>62</v>
+      </c>
+      <c r="X14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI14" t="n">
         <v>5.0</v>
       </c>
-      <c r="BB11" t="s">
-        <v>112</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>115</v>
+      <c r="BJ14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S15" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" t="s">
+        <v>62</v>
+      </c>
+      <c r="U15" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" t="s">
+        <v>62</v>
+      </c>
+      <c r="W15" t="s">
+        <v>62</v>
+      </c>
+      <c r="X15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N16" t="s">
+        <v>62</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>62</v>
+      </c>
+      <c r="R16" t="s">
+        <v>62</v>
+      </c>
+      <c r="S16" t="s">
+        <v>62</v>
+      </c>
+      <c r="T16" t="s">
+        <v>62</v>
+      </c>
+      <c r="U16" t="s">
+        <v>62</v>
+      </c>
+      <c r="V16" t="s">
+        <v>62</v>
+      </c>
+      <c r="W16" t="s">
+        <v>62</v>
+      </c>
+      <c r="X16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/primerdata_deep.xlsx
+++ b/primerdata_deep.xlsx
@@ -1675,7 +1675,7 @@
         <v>62</v>
       </c>
       <c r="AY7" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="AZ7" t="s">
         <v>100</v>
